--- a/data/places_data.xlsx
+++ b/data/places_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devansh\Desktop\Mathematical-Modelling-of-Tourism-in-Mumbai-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B78D70-8373-429E-804A-9BFBC1146086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3103644-6085-461C-AFAD-6BF3E0933848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="6600" windowWidth="17292" windowHeight="9060" activeTab="2" xr2:uid="{B8138069-5C61-4C16-B02E-CF6B0BF62039}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="4" xr2:uid="{B8138069-5C61-4C16-B02E-CF6B0BF62039}"/>
   </bookViews>
   <sheets>
     <sheet name="mumbai" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
     <t>Lumphini Park</t>
   </si>
   <si>
-    <t>Wat Phra Chetuphon (Wat Pho - reclining Buddha)</t>
-  </si>
-  <si>
     <t>Pratunam Market</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>Benjakitti Park</t>
   </si>
   <si>
-    <t>à¸¡à¸¥à¸±à¸¢à¸”à¸­à¸à¹„à¸¡à¹‰à¸ªà¸”</t>
-  </si>
-  <si>
     <t>Democracy Monument</t>
   </si>
   <si>
@@ -513,9 +507,6 @@
     <t>Palace of Versailles</t>
   </si>
   <si>
-    <t>Sacre-CÅ“ur</t>
-  </si>
-  <si>
     <t>Luxembourg Gardens</t>
   </si>
   <si>
@@ -1255,6 +1246,15 @@
   </si>
   <si>
     <t>Bangkachaoland</t>
+  </si>
+  <si>
+    <t>Wat Phra Chetuphon</t>
+  </si>
+  <si>
+    <t>Pak Khlong Talat</t>
+  </si>
+  <si>
+    <t>Sacre-Coeur</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1618,7 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B15">
         <v>4.0999999999999996</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B50">
         <v>4.5</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B51">
         <v>4.4000000000000004</v>
@@ -2499,11 +2499,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B290FD94-AE72-49D7-8EFF-F42208BC61BF}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection sqref="A1:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="36.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3381,13 +3384,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B64FD6A-FAE9-43AF-BCEE-D20C38D4BD82}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3528,7 +3531,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>402</v>
       </c>
       <c r="B9">
         <v>4.5999999999999996</v>
@@ -3545,7 +3548,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>4.2</v>
@@ -3562,7 +3565,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>4.3</v>
@@ -3579,7 +3582,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>4.5999999999999996</v>
@@ -3596,7 +3599,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>4.5</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -3630,7 +3633,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <v>3.6</v>
@@ -3647,7 +3650,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16">
         <v>4.4000000000000004</v>
@@ -3664,7 +3667,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>4.4000000000000004</v>
@@ -3681,7 +3684,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19">
         <v>4.5999999999999996</v>
@@ -3715,7 +3718,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20">
         <v>4.4000000000000004</v>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21">
         <v>4.2</v>
@@ -3749,7 +3752,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22">
         <v>4.3</v>
@@ -3766,7 +3769,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23">
         <v>4.5</v>
@@ -3783,7 +3786,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24">
         <v>4.5999999999999996</v>
@@ -3800,7 +3803,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25">
         <v>4.3</v>
@@ -3817,7 +3820,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26">
         <v>4.4000000000000004</v>
@@ -3834,7 +3837,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27">
         <v>4.5</v>
@@ -3851,7 +3854,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28">
         <v>4.5</v>
@@ -3868,7 +3871,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B29">
         <v>4.3</v>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30">
         <v>4.3</v>
@@ -3902,7 +3905,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31">
         <v>4.5999999999999996</v>
@@ -3919,7 +3922,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32">
         <v>4.2</v>
@@ -3936,7 +3939,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33">
         <v>4.5</v>
@@ -3953,7 +3956,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34">
         <v>4.5999999999999996</v>
@@ -3970,7 +3973,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35">
         <v>4.5999999999999996</v>
@@ -3987,7 +3990,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36">
         <v>4.4000000000000004</v>
@@ -4004,7 +4007,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>403</v>
       </c>
       <c r="B37">
         <v>4.3</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38">
         <v>4.3</v>
@@ -4038,7 +4041,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B39">
         <v>4.4000000000000004</v>
@@ -4055,7 +4058,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B40">
         <v>4.5</v>
@@ -4072,7 +4075,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41">
         <v>4.7</v>
@@ -4089,7 +4092,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <v>4.0999999999999996</v>
@@ -4106,7 +4109,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -4123,7 +4126,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44">
         <v>4.0999999999999996</v>
@@ -4140,7 +4143,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45">
         <v>4.5</v>
@@ -4157,7 +4160,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46">
         <v>4.5</v>
@@ -4174,7 +4177,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B47">
         <v>4.5999999999999996</v>
@@ -4191,7 +4194,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B48">
         <v>3.5</v>
@@ -4208,7 +4211,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49">
         <v>4.5</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50">
         <v>4.3</v>
@@ -4242,7 +4245,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51">
         <v>4.5999999999999996</v>
@@ -4267,12 +4270,12 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E51"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4294,7 +4297,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>4.5999999999999996</v>
@@ -4311,7 +4314,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>4.7</v>
@@ -4328,7 +4331,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>4.7</v>
@@ -4345,7 +4348,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>4.5999999999999996</v>
@@ -4362,7 +4365,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <v>4.5999999999999996</v>
@@ -4379,7 +4382,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>4.5</v>
@@ -4396,7 +4399,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>404</v>
       </c>
       <c r="B8">
         <v>4.7</v>
@@ -4413,7 +4416,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B9">
         <v>4.7</v>
@@ -4430,7 +4433,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>4.5999999999999996</v>
@@ -4447,7 +4450,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B11">
         <v>4.7</v>
@@ -4464,7 +4467,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B12">
         <v>4.7</v>
@@ -4481,7 +4484,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13">
         <v>4.4000000000000004</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -4515,7 +4518,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15">
         <v>4.7</v>
@@ -4532,7 +4535,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16">
         <v>4.4000000000000004</v>
@@ -4549,7 +4552,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17">
         <v>4.5999999999999996</v>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18">
         <v>4.5</v>
@@ -4583,7 +4586,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B19">
         <v>4.4000000000000004</v>
@@ -4600,7 +4603,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B20">
         <v>4.7</v>
@@ -4617,7 +4620,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B21">
         <v>4.7</v>
@@ -4634,7 +4637,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>4.5</v>
@@ -4651,7 +4654,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B23">
         <v>4.5999999999999996</v>
@@ -4668,7 +4671,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B24">
         <v>4.5</v>
@@ -4685,7 +4688,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B25">
         <v>4.7</v>
@@ -4702,7 +4705,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B26">
         <v>4.3</v>
@@ -4719,7 +4722,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B27">
         <v>4.5999999999999996</v>
@@ -4736,7 +4739,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28">
         <v>4.5999999999999996</v>
@@ -4753,7 +4756,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>4.5999999999999996</v>
@@ -4770,7 +4773,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B30">
         <v>4.3</v>
@@ -4787,7 +4790,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B31">
         <v>4.5999999999999996</v>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32">
         <v>4.5</v>
@@ -4821,7 +4824,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B33">
         <v>4.5999999999999996</v>
@@ -4838,7 +4841,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34">
         <v>4.2</v>
@@ -4855,7 +4858,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B35">
         <v>4.5999999999999996</v>
@@ -4872,7 +4875,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B36">
         <v>4.5</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B37">
         <v>4.3</v>
@@ -4906,7 +4909,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B38">
         <v>4.5</v>
@@ -4923,7 +4926,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B39">
         <v>4.5999999999999996</v>
@@ -4940,7 +4943,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B40">
         <v>4.5</v>
@@ -4957,7 +4960,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B41">
         <v>4.4000000000000004</v>
@@ -4974,7 +4977,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B42">
         <v>4.4000000000000004</v>
@@ -4991,7 +4994,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B43">
         <v>4.5999999999999996</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B44">
         <v>4.5</v>
@@ -5025,7 +5028,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B45">
         <v>4.5999999999999996</v>
@@ -5042,7 +5045,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B46">
         <v>4.5</v>
@@ -5059,7 +5062,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B47">
         <v>4.4000000000000004</v>
@@ -5076,7 +5079,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B48">
         <v>4.5</v>
@@ -5093,7 +5096,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B49">
         <v>4.3</v>
@@ -5110,7 +5113,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B50">
         <v>4.4000000000000004</v>
@@ -5127,7 +5130,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B51">
         <v>4.5999999999999996</v>
@@ -5154,11 +5157,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485A2B4C-6C41-406D-987A-8259810F9036}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="42.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -5179,7 +5185,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1">
         <v>4.5999999999999996</v>
@@ -5196,7 +5202,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B3">
         <v>4.2</v>
@@ -5213,7 +5219,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>4.8</v>
@@ -5230,7 +5236,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>4.7</v>
@@ -5247,7 +5253,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>4.5999999999999996</v>
@@ -5264,7 +5270,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B7">
         <v>4.5</v>
@@ -5281,7 +5287,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8">
         <v>4.4000000000000004</v>
@@ -5298,7 +5304,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B9">
         <v>4.4000000000000004</v>
@@ -5315,7 +5321,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <v>4.2</v>
@@ -5332,7 +5338,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11">
         <v>4.7</v>
@@ -5349,7 +5355,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12">
         <v>4.3</v>
@@ -5366,7 +5372,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B13">
         <v>4.5</v>
@@ -5383,7 +5389,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B14">
         <v>4.5999999999999996</v>
@@ -5400,7 +5406,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B15">
         <v>4.5</v>
@@ -5417,7 +5423,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -5434,7 +5440,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B17">
         <v>4.3</v>
@@ -5451,7 +5457,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B18">
         <v>4.4000000000000004</v>
@@ -5468,7 +5474,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19">
         <v>4.4000000000000004</v>
@@ -5485,7 +5491,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20">
         <v>4.5</v>
@@ -5502,7 +5508,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B21">
         <v>4.3</v>
@@ -5519,7 +5525,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B22">
         <v>4.5999999999999996</v>
@@ -5536,7 +5542,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B23">
         <v>4.4000000000000004</v>
@@ -5553,7 +5559,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B24">
         <v>4.4000000000000004</v>
@@ -5570,7 +5576,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25">
         <v>4.2</v>
@@ -5587,7 +5593,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B26">
         <v>4.0999999999999996</v>
@@ -5604,7 +5610,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27">
         <v>4.5</v>
@@ -5621,7 +5627,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B28">
         <v>4.4000000000000004</v>
@@ -5638,7 +5644,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B29">
         <v>4.7</v>
@@ -5655,7 +5661,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B30">
         <v>4.4000000000000004</v>
@@ -5672,7 +5678,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B31">
         <v>4.3</v>
@@ -5689,7 +5695,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B32">
         <v>4.4000000000000004</v>
@@ -5706,7 +5712,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B33">
         <v>4.5</v>
@@ -5723,7 +5729,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34">
         <v>4.5999999999999996</v>
@@ -5740,7 +5746,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B35">
         <v>4.5</v>
@@ -5757,7 +5763,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B36">
         <v>4.5999999999999996</v>
@@ -5774,7 +5780,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B37">
         <v>4.5</v>
@@ -5791,7 +5797,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B38">
         <v>4.7</v>
@@ -5808,7 +5814,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B39">
         <v>4.5999999999999996</v>
@@ -5825,7 +5831,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B40">
         <v>4.5999999999999996</v>
@@ -5842,7 +5848,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B41">
         <v>4.7</v>
@@ -5859,7 +5865,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B42">
         <v>4.5999999999999996</v>
@@ -5876,7 +5882,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B43">
         <v>4.7</v>
@@ -5893,7 +5899,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B44">
         <v>4.7</v>
@@ -5910,7 +5916,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B45">
         <v>4.9000000000000004</v>
@@ -5927,7 +5933,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B46">
         <v>4.7</v>
@@ -5944,7 +5950,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B47">
         <v>4.5</v>
@@ -5961,7 +5967,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B48">
         <v>4.4000000000000004</v>
@@ -5978,7 +5984,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B49">
         <v>4.5999999999999996</v>
@@ -5995,7 +6001,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B50">
         <v>4.4000000000000004</v>
@@ -6012,7 +6018,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B51">
         <v>4.5999999999999996</v>
@@ -6040,7 +6046,7 @@
       <selection sqref="A1:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -6061,7 +6067,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2">
         <v>4.8</v>
@@ -6078,7 +6084,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B3">
         <v>4.7</v>
@@ -6095,7 +6101,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B4">
         <v>4.7</v>
@@ -6112,7 +6118,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>4.7</v>
@@ -6129,7 +6135,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>4.7</v>
@@ -6146,7 +6152,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B7">
         <v>4.8</v>
@@ -6163,7 +6169,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>4.7</v>
@@ -6180,7 +6186,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9">
         <v>4.8</v>
@@ -6197,7 +6203,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B10">
         <v>4.4000000000000004</v>
@@ -6214,7 +6220,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B11">
         <v>4.8</v>
@@ -6231,7 +6237,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12">
         <v>4.5999999999999996</v>
@@ -6248,7 +6254,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B13">
         <v>4.7</v>
@@ -6265,7 +6271,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B14">
         <v>4.7</v>
@@ -6282,7 +6288,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B15">
         <v>4.5</v>
@@ -6299,7 +6305,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B16">
         <v>4.5999999999999996</v>
@@ -6316,7 +6322,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B17">
         <v>4.5999999999999996</v>
@@ -6333,7 +6339,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B18">
         <v>4.8</v>
@@ -6350,7 +6356,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B19">
         <v>4.5999999999999996</v>
@@ -6367,7 +6373,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B20">
         <v>4.7</v>
@@ -6384,7 +6390,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21">
         <v>4.8</v>
@@ -6401,7 +6407,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B22">
         <v>4.5</v>
@@ -6418,7 +6424,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B23">
         <v>4.3</v>
@@ -6435,7 +6441,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24">
         <v>4.5</v>
@@ -6452,7 +6458,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B25">
         <v>4.7</v>
@@ -6469,7 +6475,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26">
         <v>4.7</v>
@@ -6486,7 +6492,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B27">
         <v>4.5</v>
@@ -6503,7 +6509,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B28">
         <v>4.4000000000000004</v>
@@ -6520,7 +6526,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B29">
         <v>4.7</v>
@@ -6537,7 +6543,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B30">
         <v>4.7</v>
@@ -6554,7 +6560,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31">
         <v>4.7</v>
@@ -6571,7 +6577,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B32">
         <v>4.4000000000000004</v>
@@ -6588,7 +6594,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B33">
         <v>4.4000000000000004</v>
@@ -6605,7 +6611,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B34">
         <v>4.7</v>
@@ -6622,7 +6628,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B35">
         <v>4.8</v>
@@ -6639,7 +6645,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B36">
         <v>4.7</v>
@@ -6656,7 +6662,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B37">
         <v>4.5999999999999996</v>
@@ -6673,7 +6679,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B38">
         <v>4.5999999999999996</v>
@@ -6690,7 +6696,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B39">
         <v>4.4000000000000004</v>
@@ -6707,7 +6713,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B40">
         <v>4.0999999999999996</v>
@@ -6724,7 +6730,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B41">
         <v>4.5</v>
@@ -6741,7 +6747,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B42">
         <v>4.5</v>
@@ -6758,7 +6764,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B43">
         <v>4.7</v>
@@ -6775,7 +6781,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B44">
         <v>4.7</v>
@@ -6792,7 +6798,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B45">
         <v>4.5999999999999996</v>
@@ -6809,7 +6815,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B46">
         <v>4.5</v>
@@ -6826,7 +6832,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B47">
         <v>4.5999999999999996</v>
@@ -6843,7 +6849,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B48">
         <v>4.7</v>
@@ -6860,7 +6866,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B49">
         <v>3.6</v>
@@ -6877,7 +6883,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B50">
         <v>4.5999999999999996</v>
@@ -6894,7 +6900,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B51">
         <v>4.5</v>
@@ -6922,11 +6928,11 @@
       <selection activeCell="A52" sqref="A52:E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6949,7 +6955,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B2">
         <v>4.4000000000000004</v>
@@ -6966,7 +6972,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B3">
         <v>4.5</v>
@@ -6983,7 +6989,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>4.7</v>
@@ -7000,7 +7006,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5">
         <v>4.7</v>
@@ -7017,7 +7023,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -7034,7 +7040,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B7">
         <v>4.5999999999999996</v>
@@ -7051,7 +7057,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B8">
         <v>4.3</v>
@@ -7068,7 +7074,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B9">
         <v>4.8</v>
@@ -7085,7 +7091,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B10">
         <v>4.5999999999999996</v>
@@ -7102,7 +7108,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B11">
         <v>4.4000000000000004</v>
@@ -7119,7 +7125,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B12">
         <v>4.5</v>
@@ -7136,7 +7142,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B13">
         <v>4.5999999999999996</v>
@@ -7153,7 +7159,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B14">
         <v>4.5999999999999996</v>
@@ -7170,7 +7176,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B15">
         <v>4.7</v>
@@ -7187,7 +7193,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B16">
         <v>4.5999999999999996</v>
@@ -7204,7 +7210,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B17">
         <v>4.0999999999999996</v>
@@ -7221,7 +7227,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B18">
         <v>4.7</v>
@@ -7238,7 +7244,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B19">
         <v>4.5999999999999996</v>
@@ -7255,7 +7261,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B20">
         <v>4.8</v>
@@ -7272,7 +7278,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B21">
         <v>4.5</v>
@@ -7289,7 +7295,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B22">
         <v>4.5</v>
@@ -7306,7 +7312,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B23">
         <v>4.7</v>
@@ -7323,7 +7329,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B24">
         <v>4.4000000000000004</v>
@@ -7340,7 +7346,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B25">
         <v>4.5999999999999996</v>
@@ -7357,7 +7363,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B26">
         <v>4.2</v>
@@ -7374,7 +7380,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B27">
         <v>4.5999999999999996</v>
@@ -7391,7 +7397,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B28">
         <v>4.4000000000000004</v>
@@ -7408,7 +7414,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B29">
         <v>4.5</v>
@@ -7425,7 +7431,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B30">
         <v>4.4000000000000004</v>
@@ -7442,7 +7448,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B31">
         <v>4.5999999999999996</v>
@@ -7459,7 +7465,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B32">
         <v>4.5</v>
@@ -7476,7 +7482,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B33">
         <v>4.5999999999999996</v>
@@ -7493,7 +7499,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B34">
         <v>4.5999999999999996</v>
@@ -7510,7 +7516,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B35">
         <v>4.4000000000000004</v>
@@ -7527,7 +7533,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B36">
         <v>4.7</v>
@@ -7544,7 +7550,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B37">
         <v>4.7</v>
@@ -7561,7 +7567,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B38">
         <v>4.3</v>
@@ -7578,7 +7584,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B39">
         <v>4.5999999999999996</v>
@@ -7595,7 +7601,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -7612,7 +7618,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B41">
         <v>4.5</v>
@@ -7629,7 +7635,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B42">
         <v>4.5</v>
@@ -7646,7 +7652,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B43">
         <v>4.5999999999999996</v>
@@ -7663,7 +7669,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B44">
         <v>4.4000000000000004</v>
@@ -7680,7 +7686,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B45">
         <v>4.5999999999999996</v>
@@ -7697,7 +7703,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B46">
         <v>4.4000000000000004</v>
@@ -7714,7 +7720,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B47">
         <v>4.2</v>
@@ -7731,7 +7737,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B48">
         <v>4.3</v>
@@ -7748,7 +7754,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B49">
         <v>4.7</v>
@@ -7765,7 +7771,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B50">
         <v>4.7</v>
@@ -7782,7 +7788,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B51">
         <v>4.5</v>
@@ -7810,7 +7816,7 @@
       <selection sqref="A1:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -7831,7 +7837,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B2">
         <v>4.7</v>
@@ -7848,7 +7854,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B3">
         <v>4.7</v>
@@ -7865,7 +7871,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B4">
         <v>4.8</v>
@@ -7882,7 +7888,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B5">
         <v>4.5999999999999996</v>
@@ -7899,7 +7905,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B6">
         <v>4.5999999999999996</v>
@@ -7916,7 +7922,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B7">
         <v>4.8</v>
@@ -7933,7 +7939,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B8">
         <v>4.5</v>
@@ -7950,7 +7956,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B9">
         <v>4.5999999999999996</v>
@@ -7967,7 +7973,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B10">
         <v>4.8</v>
@@ -7984,7 +7990,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B11">
         <v>4.7</v>
@@ -8001,7 +8007,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B12">
         <v>4.7</v>
@@ -8018,7 +8024,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B13">
         <v>4.8</v>
@@ -8035,7 +8041,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B14">
         <v>4.8</v>
@@ -8052,7 +8058,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B15">
         <v>4.5999999999999996</v>
@@ -8069,7 +8075,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -8086,7 +8092,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B17">
         <v>4.5</v>
@@ -8103,7 +8109,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B18">
         <v>4.8</v>
@@ -8120,7 +8126,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B19">
         <v>4.7</v>
@@ -8137,7 +8143,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B20">
         <v>4.7</v>
@@ -8154,7 +8160,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B21">
         <v>4.5999999999999996</v>
@@ -8171,7 +8177,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B22">
         <v>4.4000000000000004</v>
@@ -8188,7 +8194,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B23">
         <v>4.5999999999999996</v>
@@ -8205,7 +8211,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B24">
         <v>4.3</v>
@@ -8222,7 +8228,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B25">
         <v>4.5999999999999996</v>
@@ -8239,7 +8245,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B26">
         <v>4.5999999999999996</v>
@@ -8256,7 +8262,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B27">
         <v>4.7</v>
@@ -8273,7 +8279,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B28">
         <v>4.7</v>
@@ -8290,7 +8296,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B29">
         <v>4.7</v>
@@ -8307,7 +8313,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B30">
         <v>4.7</v>
@@ -8324,7 +8330,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B31">
         <v>4.4000000000000004</v>
@@ -8341,7 +8347,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B32">
         <v>4.5</v>
@@ -8358,7 +8364,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -8375,7 +8381,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B34">
         <v>4.7</v>
@@ -8392,7 +8398,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B35">
         <v>4.7</v>
@@ -8409,7 +8415,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B36">
         <v>4.8</v>
@@ -8426,7 +8432,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B37">
         <v>4.9000000000000004</v>
@@ -8443,7 +8449,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B38">
         <v>4.4000000000000004</v>
@@ -8460,7 +8466,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B39">
         <v>4.5999999999999996</v>
@@ -8477,7 +8483,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B40">
         <v>4.8</v>
@@ -8494,7 +8500,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B41">
         <v>4.7</v>
@@ -8511,7 +8517,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B42">
         <v>4.4000000000000004</v>
@@ -8528,7 +8534,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B43">
         <v>4.8</v>
@@ -8545,7 +8551,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B44">
         <v>4.8</v>
@@ -8562,7 +8568,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B45">
         <v>4.8</v>
@@ -8579,7 +8585,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B46">
         <v>4.7</v>
@@ -8596,7 +8602,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B47">
         <v>4.5999999999999996</v>
@@ -8613,7 +8619,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B48">
         <v>4.8</v>
@@ -8630,7 +8636,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B49">
         <v>4.5999999999999996</v>
@@ -8647,7 +8653,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B50">
         <v>4.7</v>
@@ -8664,7 +8670,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B51">
         <v>4.8</v>
